--- a/Libary/E855#1_U.xlsx
+++ b/Libary/E855#1_U.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AI-Meter_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>перетворювача</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>01000</t>
-  </si>
-  <si>
-    <t>X/19-8A</t>
   </si>
   <si>
     <t>Нормуюче знач. вих. сигналу, mA</t>
@@ -185,16 +182,10 @@
     <t>Висновок:</t>
   </si>
   <si>
-    <t xml:space="preserve"> придатний  </t>
-  </si>
-  <si>
     <t>Підпис</t>
   </si>
   <si>
     <t>Дата:</t>
-  </si>
-  <si>
-    <t>-M1 AC</t>
   </si>
   <si>
     <t>E855/1</t>
@@ -550,24 +541,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -583,12 +556,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -694,6 +670,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -786,9 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,45 +1063,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="21" width="4.140625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="6" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" style="2" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1139,42 +1130,42 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="46" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="113" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="46" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="39"/>
+      <c r="P3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="45" t="s">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="47"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="42"/>
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1204,39 +1195,39 @@
     </row>
     <row r="5" spans="1:23" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="17">
         <v>0.5</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
       <c r="M5" s="17">
         <v>50</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="50" t="s">
+      <c r="R5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
       <c r="U5" s="18">
         <v>2</v>
       </c>
@@ -1252,26 +1243,26 @@
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="N7" s="56" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="N7" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="53"/>
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1311,24 +1302,24 @@
         <v>9</v>
       </c>
       <c r="E9" s="28"/>
-      <c r="F9" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-      <c r="N9" s="34" t="s">
+      <c r="F9" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="N9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="76">
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="71">
         <v>556621</v>
       </c>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="78"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="73"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -1341,18 +1332,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="30"/>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="N10" s="37" t="s">
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="N10" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="82"/>
       <c r="R10" s="31" t="s">
         <v>35</v>
       </c>
@@ -1367,20 +1358,20 @@
       <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="67" t="s">
+      <c r="E11" s="66"/>
+      <c r="F11" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="82"/>
       <c r="R11" s="31"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
@@ -1393,20 +1384,20 @@
       <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="82"/>
       <c r="R12" s="31"/>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
@@ -1419,24 +1410,24 @@
       <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="66"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="61"/>
     </row>
     <row r="14" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
@@ -1446,112 +1437,112 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:23" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="75" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
     </row>
     <row r="16" spans="1:23" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="52" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
     </row>
     <row r="17" spans="1:22" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="52" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
     </row>
     <row r="18" spans="1:22" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1575,296 +1566,296 @@
     </row>
     <row r="20" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="83"/>
+      <c r="C20" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="84"/>
       <c r="E20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85" t="s">
+      <c r="F20" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="86"/>
-      <c r="J20" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="22" t="str">
         <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5","20")))</f>
         <v>20</v>
       </c>
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="88"/>
+    </row>
+    <row r="21" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="87"/>
-    </row>
-    <row r="21" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="B21" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="V21" s="95"/>
+    </row>
+    <row r="22" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="V21" s="94"/>
-    </row>
-    <row r="22" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="91" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="96"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="97"/>
     </row>
     <row r="23" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>0.2</v>
       </c>
-      <c r="B23" s="88" t="e">
+      <c r="B23" s="89" t="e">
         <f>$I$5*A23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="89">
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="90">
         <f>$M$20*A23</f>
         <v>4</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="99" t="s">
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="108" t="e">
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="109" t="e">
         <f>($H23-$E23)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="102">
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="103">
         <f>$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="V23" s="103"/>
+      <c r="V23" s="104"/>
     </row>
     <row r="24" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>0.4</v>
       </c>
-      <c r="B24" s="88" t="e">
+      <c r="B24" s="89" t="e">
         <f t="shared" ref="B24:B27" si="0">$I$5*A24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="89">
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="90">
         <f t="shared" ref="E24:E27" si="1">$M$20*A24</f>
         <v>8</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="99" t="s">
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="108" t="e">
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="109" t="e">
         <f t="shared" ref="N24:N27" si="2">($H24-$E24)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="105"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="106"/>
     </row>
     <row r="25" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>0.6</v>
       </c>
-      <c r="B25" s="88" t="e">
+      <c r="B25" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="89">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="90">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="99" t="s">
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="108" t="e">
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="109" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="105"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="106"/>
     </row>
     <row r="26" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>0.8</v>
       </c>
-      <c r="B26" s="88" t="e">
+      <c r="B26" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="89">
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="90">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="99" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="108" t="e">
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="109" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="105"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="106"/>
     </row>
     <row r="27" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>1</v>
       </c>
-      <c r="B27" s="88" t="e">
+      <c r="B27" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="89">
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="90">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="99" t="s">
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="108" t="e">
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="109" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="107"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="108"/>
     </row>
     <row r="28" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1902,38 +1893,38 @@
     <row r="61" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63" s="46"/>
-      <c r="F63" s="111"/>
+      <c r="A63" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="40"/>
+      <c r="F63" s="112"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
-      <c r="I63" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="111"/>
+      <c r="I63" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="112"/>
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
-      <c r="Q63" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="46" t="s">
+      <c r="Q63" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="U63" s="46"/>
-      <c r="V63" s="111"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="112"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2047,6 +2038,11 @@
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="N13:Q13"/>
     <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
     <mergeCell ref="S18:V18"/>
     <mergeCell ref="S17:V17"/>
     <mergeCell ref="A15:R15"/>
@@ -2077,11 +2073,6 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="R5:T5"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="D9:E9"/>

--- a/Libary/E855#1_U.xlsx
+++ b/Libary/E855#1_U.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AMSof_Develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Вих2" sheetId="1" r:id="rId1"/>
-    <sheet name="Вих3" sheetId="4" r:id="rId2"/>
+    <sheet name="Протокол" sheetId="1" r:id="rId1"/>
+    <sheet name="Графік сигналу" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
@@ -172,10 +172,6 @@
 струму</t>
   </si>
   <si>
-    <t>Виміряне значення вихідного струму, mA 
-(напруги, V)</t>
-  </si>
-  <si>
     <t>Границі основної приведеної похибки, ± %</t>
   </si>
   <si>
@@ -189,6 +185,9 @@
   </si>
   <si>
     <t>E855/1</t>
+  </si>
+  <si>
+    <t>Виміряне значення вихідного струму, mA</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23:T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1147,7 @@
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3" s="38"/>
       <c r="N3" s="39" t="s">
@@ -1607,7 +1606,7 @@
       <c r="U20" s="37"/>
       <c r="V20" s="88"/>
     </row>
-    <row r="21" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91" t="s">
         <v>38</v>
       </c>
@@ -1620,7 +1619,7 @@
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
       <c r="H21" s="94" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I21" s="98"/>
       <c r="J21" s="98"/>
@@ -1637,7 +1636,7 @@
       <c r="S21" s="98"/>
       <c r="T21" s="95"/>
       <c r="U21" s="94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V21" s="95"/>
     </row>
@@ -1894,7 +1893,7 @@
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="40"/>
       <c r="C63" s="40"/>
@@ -1906,7 +1905,7 @@
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
       <c r="I63" s="113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J63" s="40"/>
       <c r="K63" s="40"/>
@@ -1916,7 +1915,7 @@
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R63" s="40"/>
       <c r="S63" s="40"/>
@@ -2094,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
